--- a/doc/backend/api/TRN-MiniBlog_API-Specification_LeDangHuy.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_LeDangHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="255">
   <si>
     <t>Description</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>2006</t>
-  </si>
-  <si>
-    <t>Validation error</t>
   </si>
   <si>
     <t>Authentication error (1001 -&gt; 1999)</t>
@@ -524,9 +521,6 @@
     <t>Common JSON format</t>
   </si>
   <si>
-    <t>10/21/2014</t>
-  </si>
-  <si>
     <t>Mini Comment System</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
     <t>Sample URI</t>
   </si>
   <si>
-    <t>POST /v1/users</t>
-  </si>
-  <si>
     <t>Create new user account.</t>
   </si>
   <si>
@@ -581,15 +572,9 @@
     <t>Create user</t>
   </si>
   <si>
-    <t>/v1/users</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://{domain}/v1/users</t>
-  </si>
-  <si>
     <t>User name</t>
   </si>
   <si>
@@ -599,9 +584,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>truong.vu</t>
-  </si>
-  <si>
     <t>Login user name.</t>
   </si>
   <si>
@@ -635,12 +617,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Vu</t>
-  </si>
-  <si>
-    <t>Truong</t>
-  </si>
-  <si>
     <t>First name.</t>
   </si>
   <si>
@@ -657,9 +633,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>truong.vu@mulodo.com</t>
   </si>
   <si>
     <t>User email address.</t>
@@ -854,12 +827,60 @@
       <t>ccount</t>
     </r>
   </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Create User error</t>
+  </si>
+  <si>
+    <t>username already exist</t>
+  </si>
+  <si>
+    <t>email already exist</t>
+  </si>
+  <si>
+    <t>username error</t>
+  </si>
+  <si>
+    <t>email error.</t>
+  </si>
+  <si>
+    <t>/v1/adduser</t>
+  </si>
+  <si>
+    <t>POST /v1/adduser</t>
+  </si>
+  <si>
+    <t>http://{domain}/v1/adduser</t>
+  </si>
+  <si>
+    <t>huy</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>dang.huy@mulodo.com</t>
+  </si>
+  <si>
+    <t>ledanghuy</t>
+  </si>
+  <si>
+    <t>System DAO error</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1038,13 +1059,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -1069,6 +1083,33 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1727,7 +1768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1919,7 +1960,6 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="280" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1996,10 +2036,10 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2014,19 +2054,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,7 +2075,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,46 +2085,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2102,44 +2142,48 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2171,16 +2215,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2208,21 +2242,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2235,37 +2254,55 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,49 +2335,68 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="280" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -2781,7 +2837,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2839,264 +2895,405 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{ </a:t>
+            <a:t>HTTP/1.1 200</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  "meta":</a:t>
+            <a:t> OK</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "code": 200,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "message": "Success"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"user_id":10,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "username": "vutruong",</a:t>
+            <a:t>Content-Type: application/json</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
+          <a:endParaRPr lang="en-GB">
             <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-GB" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "firstname": "Vu",</a:t>
+            <a:t>{</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
+          <a:endParaRPr lang="en-GB">
             <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-GB" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "lastname": "Truong",</a:t>
+            <a:t>	"meta":</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-GB" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "token": "xxxxxx"</a:t>
+            <a:t>	{</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  }</a:t>
+            <a:t>		"code":200,</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"description":"User account was created successfully.",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"message":"Account created success!"},</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	"data":</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	{</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"id":6,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"username":"ledanghuy",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"password":"abcd1234",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"lastname":"le",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"firstname":"huy",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"email":"dang.huy@mulodo.com",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"create_at":1422351603490,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"modified_at":1422351603490,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"user_posts":null,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"user_comments":null,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"user_token":null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3106,13 +3303,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3170,95 +3367,201 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{ </a:t>
+            <a:t>HTTP/1.1 200</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Content-Type: application/json</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>{</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "code": 2001,</a:t>
+            <a:t>	"meta":</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "message": "Database</a:t>
+            <a:t>	{</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> error occured. Please try again later.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  },</a:t>
+            <a:t>		"code":1002,</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  "data": null</a:t>
+            <a:t>		"description":"Username already exist",</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		"message":null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	},</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	"data":null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3340,7 +3643,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/users HTTP/1.1</a:t>
+            <a:t>POST /v1/adduer HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3349,52 +3652,41 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Host:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  api.domain.com</a:t>
+            <a:t>Host: localhost:8080</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Content-Type:  application/x-www-form-urlencoded</a:t>
+            <a:t>Content-Type: application/x-www-form-urlencoded</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Content-Length: 136</a:t>
+            <a:t>Content-Length: 90</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>username=truong.vu&amp;password=abcd1234&amp;firstname=Vu&amp;lastname=Truong&amp;email=truong.vu%40mulodo.com</a:t>
+            <a:t>username=ledanghuy&amp;password=abcd1234&amp;firstname=huy&amp;lastname=le&amp;email=dang.huy%40mulodo.com</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3410,7 +3702,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3502,300 +3794,133 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="en-GB"/>
             <a:t>{</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "code": 200,</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>	"meta":</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "description": "User account was created successfully.",</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>	{</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "message": "Account created success!"</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"code":200,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  }</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"description":"User account was created successfully.",</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"message":"Account created success!"},</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>	"data":</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"user_id":10,</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>	{</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "username":"vutruong",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "firstname":"Vu",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "lastname":"Truong",</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"id":6,</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="sk-SK" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "email":"truong.vu@mulodo.com",</a:t>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"username":"ledanghuy",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"password":"abcd1234",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"lastname":"le",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"firstname":"huy",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"email":"dang.huy@mulodo.com",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"create_at":1422351603490,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"modified_at":1422351603490,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"user_posts":null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"user_comments":null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>		"user_token":null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "token":"xxxxxx"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3805,13 +3930,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3907,31 +4032,6 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
             <a:t>{</a:t>
           </a:r>
         </a:p>
@@ -3941,7 +4041,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code":1001,</a:t>
+            <a:t>	"meta":</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3950,7 +4050,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "description":"Input validation failed.",</a:t>
+            <a:t>	{</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3959,7 +4059,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "messages": </a:t>
+            <a:t>		"code":1002,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3968,7 +4068,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      [</a:t>
+            <a:t>		"description":"Username already exist",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3977,7 +4077,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        {</a:t>
+            <a:t>		"message":null</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3986,39 +4086,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>	message:"Username is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
+            <a:t>	},</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4027,50 +4095,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>	message:"Password is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
+            <a:t>	"data":null</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4413,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:AC10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -4425,89 +4450,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192" t="s">
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="197" t="s">
+      <c r="L1" s="163"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="165" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="198"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="179" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="200" t="s">
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="170"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A2" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="202"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="189" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="174" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="174" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="175"/>
       <c r="M2" s="176"/>
-      <c r="N2" s="194" t="s">
+      <c r="N2" s="186" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="171" t="s">
         <v>162</v>
-      </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="171" t="s">
-        <v>164</v>
       </c>
       <c r="W2" s="172"/>
       <c r="X2" s="173"/>
       <c r="Y2" s="171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="172"/>
       <c r="AA2" s="173"/>
       <c r="AB2" s="171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="172"/>
       <c r="AD2" s="173"/>
@@ -4519,7 +4544,7 @@
       <c r="B3" s="175"/>
       <c r="C3" s="176"/>
       <c r="D3" s="177" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
@@ -4528,194 +4553,194 @@
       <c r="I3" s="178"/>
       <c r="J3" s="178"/>
       <c r="K3" s="174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="175"/>
       <c r="M3" s="176"/>
-      <c r="N3" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="187"/>
+      <c r="N3" s="165" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="184"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169" t="s">
+      <c r="G8" s="200"/>
+      <c r="H8" s="200" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="168"/>
+      <c r="B9" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="196"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="198"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="168"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="196"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="199"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="168"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="196"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="199"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="168"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="195"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="195"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="199"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4745,11 +4770,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4764,31 +4809,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4821,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="2:6" s="3" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4"/>
       <c r="E1" s="22"/>
@@ -4840,7 +4865,7 @@
     </row>
     <row r="5" spans="2:6" ht="18.75">
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="24"/>
@@ -4848,7 +4873,7 @@
     </row>
     <row r="6" spans="2:6" ht="18.75">
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>6</v>
@@ -4865,13 +4890,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75">
@@ -4879,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75">
@@ -4902,7 +4927,7 @@
     </row>
     <row r="11" spans="2:6" ht="18.75">
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="27"/>
@@ -4910,7 +4935,7 @@
     </row>
     <row r="12" spans="2:6" ht="18.75">
       <c r="C12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="27"/>
@@ -4918,7 +4943,7 @@
     </row>
     <row r="13" spans="2:6" ht="18.75">
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
@@ -4935,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75">
@@ -4949,13 +4974,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>49</v>
-      </c>
       <c r="F15" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18.75">
@@ -4963,13 +4988,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="18.75">
@@ -4980,7 +5005,7 @@
     </row>
     <row r="18" spans="3:6" ht="18.75">
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="28"/>
@@ -4988,7 +5013,7 @@
     </row>
     <row r="19" spans="3:6" ht="18.75">
       <c r="C19" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
@@ -4996,7 +5021,7 @@
     </row>
     <row r="20" spans="3:6" ht="18.75">
       <c r="C20" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>6</v>
@@ -5013,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="18.75">
@@ -5027,13 +5052,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="18.75">
@@ -5041,13 +5066,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="18.75">
@@ -5055,13 +5080,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="18.75">
@@ -5069,18 +5094,18 @@
         <v>5</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75">
       <c r="C28" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="28"/>
@@ -5088,7 +5113,7 @@
     </row>
     <row r="29" spans="3:6" ht="18.75">
       <c r="C29" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
@@ -5096,7 +5121,7 @@
     </row>
     <row r="30" spans="3:6" ht="18.75">
       <c r="C30" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>6</v>
@@ -5113,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="18.75">
@@ -5127,13 +5152,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="18.75">
@@ -5150,7 +5175,7 @@
     </row>
     <row r="35" spans="3:6" ht="18.75">
       <c r="C35" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="28"/>
@@ -5158,7 +5183,7 @@
     </row>
     <row r="36" spans="3:6" ht="18.75">
       <c r="C36" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
@@ -5166,7 +5191,7 @@
     </row>
     <row r="37" spans="3:6" ht="18.75">
       <c r="C37" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>6</v>
@@ -5183,13 +5208,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="18.75">
@@ -5197,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="18.75">
@@ -5211,18 +5236,18 @@
         <v>3</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="18.75">
       <c r="C43" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="28"/>
@@ -5230,7 +5255,7 @@
     </row>
     <row r="44" spans="3:6" ht="18.75">
       <c r="C44" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
@@ -5238,7 +5263,7 @@
     </row>
     <row r="45" spans="3:6" ht="18.75">
       <c r="C45" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>6</v>
@@ -5255,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="F46" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="18.75">
@@ -5269,18 +5294,18 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="F47" s="32" t="s">
         <v>112</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="18.75">
       <c r="C50" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="28"/>
@@ -5288,7 +5313,7 @@
     </row>
     <row r="51" spans="3:6" ht="18.75">
       <c r="C51" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="28"/>
@@ -5296,7 +5321,7 @@
     </row>
     <row r="52" spans="3:6" ht="18.75">
       <c r="C52" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>6</v>
@@ -5313,18 +5338,18 @@
         <v>1</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="18.75">
       <c r="C56" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="28"/>
@@ -5332,7 +5357,7 @@
     </row>
     <row r="57" spans="3:6" ht="18.75">
       <c r="C57" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="28"/>
@@ -5340,7 +5365,7 @@
     </row>
     <row r="58" spans="3:6" ht="18.75">
       <c r="C58" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>6</v>
@@ -5357,13 +5382,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="F59" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5401,10 +5426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N35"/>
+  <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -5414,11 +5439,11 @@
     <col min="4" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="135" customFormat="1" ht="26.1" customHeight="1">
+    <row r="1" spans="2:11" s="134" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="134"/>
+        <v>157</v>
+      </c>
+      <c r="C1" s="133"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="45"/>
@@ -5434,8 +5459,8 @@
     </row>
     <row r="4" spans="2:11" ht="15.75">
       <c r="B4" s="48"/>
-      <c r="C4" s="136" t="s">
-        <v>165</v>
+      <c r="C4" s="135" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5528,7 +5553,7 @@
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
-      <c r="K11" s="51"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="48"/>
@@ -5590,7 +5615,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:11">
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -5602,7 +5627,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:11">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -5612,9 +5637,9 @@
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="48"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -5626,7 +5651,7 @@
       <c r="J19" s="49"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:11">
       <c r="B20" s="48"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -5638,11 +5663,9 @@
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="2:14" ht="15.75">
+    <row r="21" spans="2:11">
       <c r="B21" s="48"/>
-      <c r="C21" s="136" t="s">
-        <v>166</v>
-      </c>
+      <c r="C21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -5652,7 +5675,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:11">
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -5664,7 +5687,7 @@
       <c r="J22" s="49"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:11">
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -5676,7 +5699,7 @@
       <c r="J23" s="49"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:11">
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -5688,7 +5711,7 @@
       <c r="J24" s="49"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:11">
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -5700,7 +5723,7 @@
       <c r="J25" s="49"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:11">
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
@@ -5712,7 +5735,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:11">
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -5724,9 +5747,11 @@
       <c r="J27" s="49"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:11" ht="15.75">
       <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="135" t="s">
+        <v>164</v>
+      </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
@@ -5736,7 +5761,7 @@
       <c r="J28" s="49"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:11">
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -5747,9 +5772,8 @@
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="50"/>
-      <c r="N29" s="52"/>
-    </row>
-    <row r="30" spans="2:14">
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
@@ -5761,7 +5785,7 @@
       <c r="J30" s="49"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:11">
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -5773,7 +5797,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:11">
       <c r="B32" s="48"/>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -5785,7 +5809,7 @@
       <c r="J32" s="49"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:14">
       <c r="B33" s="48"/>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -5797,7 +5821,7 @@
       <c r="J33" s="49"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:14">
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
@@ -5809,17 +5833,138 @@
       <c r="J34" s="49"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
+    <row r="35" spans="2:14">
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="N39" s="52"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>
@@ -5836,10 +5981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L65"/>
+  <dimension ref="B1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -5854,747 +5999,785 @@
     <col min="8" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="120" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="2:12" s="119" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75">
+      <c r="B4" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="202"/>
+      <c r="F4" s="143" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="124"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="146">
+        <v>1</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="203" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="146">
+        <v>2</v>
+      </c>
+      <c r="C6" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="235" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="234" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="146">
+        <v>3</v>
+      </c>
+      <c r="C7" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="203" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="234" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75">
+      <c r="B10" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75">
+      <c r="B11" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="202"/>
+      <c r="F11" s="143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="125">
+        <v>1</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="239" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="201"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="125">
+        <v>2</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="125">
+        <v>3</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="125">
+        <v>4</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="125">
+        <v>5</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="125">
+        <v>6</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75">
+      <c r="B19" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75">
-      <c r="B4" s="104" t="s">
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="121"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75">
+      <c r="B20" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="147">
+      <c r="C20" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="202"/>
+      <c r="F20" s="143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="125">
         <v>1</v>
       </c>
-      <c r="C5" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="204" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75">
-      <c r="B8" s="123" t="s">
+      <c r="C21" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="125">
+        <v>2</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="125">
         <v>3</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75">
-      <c r="B9" s="104" t="s">
+      <c r="C23" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="125">
+        <v>4</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="125">
+        <v>5</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="125">
+        <v>6</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75">
+      <c r="B28" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="121"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75">
+      <c r="B29" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="126">
+      <c r="C29" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="202"/>
+      <c r="F29" s="143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="146">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="126">
-        <v>2</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="126">
-        <v>3</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="126">
-        <v>4</v>
-      </c>
-      <c r="C13" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="126">
-        <v>5</v>
-      </c>
-      <c r="C14" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="126">
-        <v>6</v>
-      </c>
-      <c r="C15" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75">
-      <c r="B17" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="122"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="126">
-        <v>1</v>
-      </c>
-      <c r="C19" s="127" t="s">
+      <c r="C30" s="147" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="126">
-        <v>2</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-    </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="126">
-        <v>3</v>
-      </c>
-      <c r="C21" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-    </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="126">
-        <v>4</v>
-      </c>
-      <c r="C22" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-    </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="126">
-        <v>5</v>
-      </c>
-      <c r="C23" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-    </row>
-    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="126">
-        <v>6</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="122"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75">
-      <c r="B27" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="205"/>
-      <c r="F27" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="147">
-        <v>1</v>
-      </c>
-      <c r="C28" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-    </row>
-    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="126">
-        <v>2</v>
-      </c>
-      <c r="C29" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-    </row>
-    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="126">
-        <v>3</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>16</v>
       </c>
       <c r="D30" s="203"/>
       <c r="E30" s="203"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="126">
+      <c r="B31" s="125">
+        <v>2</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="125">
+        <v>3</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="125">
         <v>4</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C33" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-    </row>
-    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="126">
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="125">
         <v>5</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C34" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-    </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="126">
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="125">
         <v>6</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C35" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-    </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="126">
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="125">
         <v>7</v>
       </c>
-      <c r="C34" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="126">
+      <c r="C36" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="125">
         <v>8</v>
       </c>
-      <c r="C35" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-    </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="126">
+      <c r="C37" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="201"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="125">
         <v>9</v>
       </c>
-      <c r="C36" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-    </row>
-    <row r="39" spans="2:8" ht="15.75">
-      <c r="B39" s="123" t="s">
+      <c r="C38" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75">
+      <c r="B41" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="121"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75">
+      <c r="B42" s="123"/>
+      <c r="C42" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="202"/>
+      <c r="F42" s="156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15" customHeight="1">
+      <c r="B43" s="125">
+        <v>1</v>
+      </c>
+      <c r="C43" s="126"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" customHeight="1">
+      <c r="B44" s="125">
+        <v>2</v>
+      </c>
+      <c r="C44" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="122"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75">
-      <c r="B40" s="124"/>
-      <c r="C40" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="205"/>
-      <c r="F40" s="157" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="126">
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="125">
+        <v>3</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="201"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="125">
+        <v>4</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="201"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="125">
+        <v>5</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="201"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75">
+      <c r="B50" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="121"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75">
+      <c r="B51" s="123"/>
+      <c r="C51" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="202"/>
+      <c r="F51" s="143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="125">
         <v>1</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="146"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="126">
+      <c r="C52" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="201"/>
+      <c r="E52" s="201"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="125">
         <v>2</v>
       </c>
-      <c r="C42" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="146"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="126">
+      <c r="C53" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="201"/>
+      <c r="E53" s="201"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="125">
         <v>3</v>
       </c>
-      <c r="C43" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="146"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="126">
+      <c r="C54" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="201"/>
+      <c r="E54" s="201"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="125">
         <v>4</v>
       </c>
-      <c r="C44" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="146"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="126">
+      <c r="C55" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="201"/>
+      <c r="E55" s="201"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="125">
         <v>5</v>
       </c>
-      <c r="C45" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="146"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75">
-      <c r="B48" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="122"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75">
-      <c r="B49" s="124"/>
-      <c r="C49" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="205"/>
-      <c r="F49" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="126">
+      <c r="C56" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="201"/>
+      <c r="E56" s="201"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="125">
+        <v>6</v>
+      </c>
+      <c r="C57" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="201"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="125">
+        <v>7</v>
+      </c>
+      <c r="C58" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="201"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75">
+      <c r="B61" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="121"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75">
+      <c r="B62" s="123"/>
+      <c r="C62" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="202"/>
+      <c r="F62" s="143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1">
+      <c r="B63" s="125">
         <v>1</v>
       </c>
-      <c r="C50" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="146"/>
-    </row>
-    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="126">
+      <c r="C63" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="204"/>
+      <c r="E63" s="205"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1">
+      <c r="B64" s="125">
         <v>2</v>
       </c>
-      <c r="C51" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="146"/>
-    </row>
-    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="126">
+      <c r="C64" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="204"/>
+      <c r="E64" s="205"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="2:6" ht="15" customHeight="1">
+      <c r="B65" s="125">
         <v>3</v>
       </c>
-      <c r="C52" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="146"/>
-    </row>
-    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="126">
+      <c r="C65" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="204"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1">
+      <c r="B66" s="125">
         <v>4</v>
       </c>
-      <c r="C53" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="146"/>
-    </row>
-    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="126">
+      <c r="C66" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="204"/>
+      <c r="E66" s="205"/>
+      <c r="F66" s="145"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="125">
         <v>5</v>
       </c>
-      <c r="C54" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="146"/>
-    </row>
-    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="126">
-        <v>6</v>
-      </c>
-      <c r="C55" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="146"/>
-    </row>
-    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="126">
-        <v>7</v>
-      </c>
-      <c r="C56" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="146"/>
-    </row>
-    <row r="59" spans="2:6" ht="15.75">
-      <c r="B59" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="122"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75">
-      <c r="B60" s="124"/>
-      <c r="C60" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="205"/>
-      <c r="F60" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="126">
-        <v>1</v>
-      </c>
-      <c r="C61" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="206"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="146"/>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="126">
-        <v>2</v>
-      </c>
-      <c r="C62" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="206"/>
-      <c r="E62" s="207"/>
-      <c r="F62" s="146"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="126">
-        <v>3</v>
-      </c>
-      <c r="C63" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" s="206"/>
-      <c r="E63" s="207"/>
-      <c r="F63" s="146"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="126">
-        <v>4</v>
-      </c>
-      <c r="C64" s="127" t="s">
+      <c r="C67" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="206"/>
-      <c r="E64" s="207"/>
-      <c r="F64" s="146"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="126">
-        <v>5</v>
-      </c>
-      <c r="C65" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="206"/>
-      <c r="E65" s="207"/>
-      <c r="F65" s="146"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="205"/>
+      <c r="F67" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6611,8 +6794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6630,8 +6813,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>167</v>
+      <c r="B1" s="132" t="s">
+        <v>165</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="35"/>
@@ -6666,356 +6849,356 @@
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="104" t="s">
+      <c r="C4" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="F4" s="207"/>
+      <c r="G4" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="103" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="105">
+      <c r="B5" s="104">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="210" t="s">
+      <c r="C5" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="236" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="236" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="104">
+        <v>2</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="104">
+        <v>3</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="104">
+        <v>4</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="104">
+        <v>5</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="104">
+        <v>6</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="104">
+        <v>7</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="104">
+        <v>8</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="104">
+        <v>9</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="109" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="104">
+        <v>10</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="104">
+        <v>11</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="104">
+        <v>12</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="104">
+        <v>13</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="104">
+        <v>14</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="104">
+        <v>15</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="104">
+        <v>16</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="105">
-        <v>2</v>
-      </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="105">
-        <v>3</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="105">
-        <v>4</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="105">
-        <v>5</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="105">
-        <v>6</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="105">
-        <v>7</v>
-      </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="105">
-        <v>8</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="213" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="105">
-        <v>9</v>
-      </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="105">
-        <v>10</v>
-      </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="105">
-        <v>11</v>
-      </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="105">
-        <v>12</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="105">
-        <v>13</v>
-      </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="105">
-        <v>14</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="105">
-        <v>15</v>
-      </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="105">
-        <v>16</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="215" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="110"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="109"/>
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="105">
+      <c r="B21" s="104">
         <v>17</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="110"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="38"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="105">
+      <c r="B22" s="104">
         <v>18</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="110"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="38"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="105">
+      <c r="B23" s="104">
         <v>19</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="110"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="105">
+      <c r="B24" s="104">
         <v>20</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="110"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="109"/>
       <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="105">
+      <c r="B25" s="104">
         <v>21</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="110"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="105">
+      <c r="B26" s="104">
         <v>22</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="105">
+      <c r="B27" s="104">
         <v>23</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="105">
+      <c r="B28" s="104">
         <v>24</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
       <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1">
@@ -7071,10 +7254,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7113,10 +7296,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>247</v>
+        <v>141</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>238</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7135,7 +7318,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="66"/>
@@ -7154,17 +7337,17 @@
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="220" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="219"/>
+        <v>128</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7175,17 +7358,17 @@
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="220" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="219"/>
+        <v>129</v>
+      </c>
+      <c r="C5" s="216" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="218"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7196,10 +7379,10 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="C6" s="237" t="s">
+        <v>248</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7217,17 +7400,17 @@
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="220" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="219"/>
+        <v>185</v>
+      </c>
+      <c r="C7" s="216" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7238,10 +7421,10 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -7259,17 +7442,17 @@
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="220" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="219"/>
+        <v>216</v>
+      </c>
+      <c r="C9" s="216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="218"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7297,7 +7480,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7332,19 +7515,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="226" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
+      <c r="B13" s="220" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="222"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7353,31 +7536,31 @@
       <c r="A14" s="66"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="E14" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="F14" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="G14" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="H14" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="I14" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="235" t="s">
+      <c r="J14" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7386,31 +7569,31 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G15" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="80">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="229" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
+        <v>252</v>
+      </c>
+      <c r="J15" s="226" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7419,31 +7602,31 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G16" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="80">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="229" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="229"/>
-      <c r="L16" s="229"/>
+        <v>182</v>
+      </c>
+      <c r="J16" s="226" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7452,28 +7635,28 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="80">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7485,31 +7668,31 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="80">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" s="230"/>
-      <c r="L18" s="219"/>
+        <v>250</v>
+      </c>
+      <c r="J18" s="216" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="217"/>
+      <c r="L18" s="218"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -7518,48 +7701,48 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E19" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="80">
-        <v>255</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="220" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="230"/>
-      <c r="L19" s="219"/>
+        <v>254</v>
+      </c>
+      <c r="I19" s="238" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" s="216" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="217"/>
+      <c r="L19" s="218"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="66"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -7567,218 +7750,218 @@
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+        <v>214</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="66"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="66"/>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
       <c r="M26" s="66"/>
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="66"/>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="231" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
+      <c r="B29" s="227" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="69"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
-    <row r="30" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="90"/>
+    <row r="30" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="89"/>
       <c r="B30" s="223" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="224"/>
       <c r="D30" s="224"/>
       <c r="E30" s="225"/>
       <c r="F30" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="76" t="s">
+      <c r="I30" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="J30" s="76" t="s">
+      <c r="K30" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="K30" s="76" t="s">
-        <v>137</v>
-      </c>
       <c r="L30" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
+        <v>218</v>
+      </c>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="B31" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31" s="79"/>
       <c r="M31" s="66"/>
@@ -7787,29 +7970,29 @@
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="94"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="78" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="66"/>
@@ -7818,32 +8001,32 @@
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="66"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="220" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" s="219"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="216" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="218"/>
       <c r="F33" s="78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -7851,32 +8034,32 @@
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="220" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="219"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="216" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="218"/>
       <c r="F34" s="78" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -7884,32 +8067,32 @@
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="94"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="78" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
       </c>
       <c r="J35" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K35" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -7917,32 +8100,32 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="220" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="219"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="218"/>
       <c r="F36" s="78" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -7950,32 +8133,32 @@
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="222"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="232" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="233"/>
       <c r="F37" s="78" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -7983,32 +8166,32 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="220" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="219"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="216" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="218"/>
       <c r="F38" s="78" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
       </c>
       <c r="J38" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K38" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8016,32 +8199,32 @@
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="97"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="71" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
       </c>
       <c r="J39" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K39" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8049,32 +8232,32 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="151" t="s">
-        <v>203</v>
+      <c r="B40" s="91"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="144"/>
+      <c r="F40" s="150" t="s">
+        <v>195</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
       </c>
       <c r="J40" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="153" t="s">
-        <v>246</v>
+        <v>139</v>
+      </c>
+      <c r="L40" s="152" t="s">
+        <v>237</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8082,32 +8265,32 @@
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="220" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="216" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="218"/>
+      <c r="F41" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="78" t="s">
+      <c r="G41" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="80" t="s">
-        <v>151</v>
-      </c>
       <c r="H41" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I41" s="80">
         <v>1</v>
       </c>
       <c r="J41" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -8115,17 +8298,17 @@
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="84"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="83"/>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
       <c r="O42" s="66"/>
@@ -8133,680 +8316,680 @@
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="66"/>
       <c r="B43" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="84"/>
+        <v>219</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="84"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="83"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="84"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="83"/>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="66"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="84"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="83"/>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="66"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="84"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="83"/>
       <c r="M47" s="66"/>
       <c r="N47" s="66"/>
       <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="84"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="83"/>
       <c r="M48" s="66"/>
       <c r="N48" s="66"/>
       <c r="O48" s="66"/>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="83"/>
       <c r="M49" s="66"/>
       <c r="N49" s="66"/>
       <c r="O49" s="66"/>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="83"/>
       <c r="M50" s="66"/>
       <c r="N50" s="66"/>
       <c r="O50" s="66"/>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="66"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="83"/>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
       <c r="O51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="84"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="83"/>
       <c r="M52" s="66"/>
       <c r="N52" s="66"/>
       <c r="O52" s="66"/>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="84"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="83"/>
       <c r="M53" s="66"/>
       <c r="N53" s="66"/>
       <c r="O53" s="66"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="84"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="83"/>
       <c r="M54" s="66"/>
       <c r="N54" s="66"/>
       <c r="O54" s="66"/>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="84"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="83"/>
       <c r="M55" s="66"/>
       <c r="N55" s="66"/>
       <c r="O55" s="66"/>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="84"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="83"/>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="84"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="84"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="83"/>
       <c r="M58" s="66"/>
       <c r="N58" s="66"/>
       <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="83"/>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="83"/>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
-    <row r="61" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="224"/>
-      <c r="D61" s="224"/>
-      <c r="E61" s="225"/>
-      <c r="F61" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L62" s="79"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="83"/>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
       <c r="O62" s="66"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="80">
-        <v>1</v>
-      </c>
-      <c r="J63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L63" s="79"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
       <c r="O63" s="66"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="218" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="219"/>
-      <c r="F64" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H64" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="80">
-        <v>1</v>
-      </c>
-      <c r="J64" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L64" s="153" t="s">
-        <v>239</v>
-      </c>
+      <c r="B64" s="228" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="218" t="s">
+    <row r="65" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="89"/>
+      <c r="B65" s="223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="224"/>
+      <c r="D65" s="224"/>
+      <c r="E65" s="225"/>
+      <c r="F65" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="J65" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="L65" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="233"/>
-      <c r="F65" s="151" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I65" s="80">
-        <v>1</v>
-      </c>
-      <c r="J65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="K65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65" s="153" t="s">
-        <v>238</v>
-      </c>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="234" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="233"/>
-      <c r="F66" s="151" t="s">
-        <v>240</v>
+      <c r="B66" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="G66" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I66" s="80">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="I66" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="J66" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L66" s="153" t="s">
-        <v>245</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="L66" s="79"/>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
       <c r="O66" s="66"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="151" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>183</v>
+      <c r="B67" s="91"/>
+      <c r="C67" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="95"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="H67" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" s="152" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="153" t="s">
-        <v>244</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I67" s="80">
+        <v>1</v>
+      </c>
+      <c r="J67" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67" s="79"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
       <c r="O67" s="66"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="96"/>
-      <c r="E68" s="94"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="229" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="218"/>
       <c r="F68" s="78" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="G68" s="80" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H68" s="80" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I68" s="80">
         <v>1</v>
       </c>
       <c r="J68" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="79"/>
+        <v>152</v>
+      </c>
+      <c r="L68" s="152" t="s">
+        <v>230</v>
+      </c>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="219"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="79"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="230"/>
+      <c r="F69" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69" s="80">
+        <v>1</v>
+      </c>
+      <c r="J69" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="152" t="s">
+        <v>229</v>
+      </c>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="84"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="230"/>
+      <c r="F70" s="150" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="80">
+        <v>1</v>
+      </c>
+      <c r="J70" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K70" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="L70" s="152" t="s">
+        <v>236</v>
+      </c>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="153" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="J71" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="152" t="s">
+        <v>235</v>
+      </c>
       <c r="M71" s="66"/>
       <c r="N71" s="66"/>
       <c r="O71" s="66"/>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="95"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="I72" s="80">
+        <v>1</v>
+      </c>
+      <c r="J72" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K72" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="L72" s="79"/>
       <c r="M72" s="66"/>
       <c r="N72" s="66"/>
       <c r="O72" s="66"/>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="216"/>
+      <c r="E73" s="218"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="79"/>
       <c r="M73" s="66"/>
       <c r="N73" s="66"/>
       <c r="O73" s="66"/>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="66"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="83"/>
       <c r="M74" s="66"/>
       <c r="N74" s="66"/>
       <c r="O74" s="66"/>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
+      <c r="B75" s="74" t="s">
+        <v>215</v>
+      </c>
       <c r="C75" s="66"/>
       <c r="D75" s="66"/>
       <c r="E75" s="66"/>
@@ -9043,64 +9226,28 @@
       <c r="O88" s="66"/>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
-      <c r="O89" s="66"/>
-    </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="66"/>
-    </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="101"/>
-      <c r="O91" s="101"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="100"/>
+      <c r="L89" s="100"/>
+      <c r="M89" s="100"/>
+      <c r="N89" s="100"/>
+      <c r="O89" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D73:E73"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="J15:L15"/>
@@ -9109,16 +9256,18 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
